--- a/mereni_MD/1.sval3.xlsx
+++ b/mereni_MD/1.sval3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarekDarsaU\Documents\Škola\5.Semester\Projekt-5\mereni_MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B24BBCC-C8B2-4B56-A8E4-1B8B4FA24545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C05383-12E9-4782-9590-14BE5090A86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,47 +113,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota v mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -163,7 +143,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -181,8 +173,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19720581802274717"/>
-                  <c:y val="-1.8935185185185208E-2"/>
+                  <c:x val="-0.18701312335958006"/>
+                  <c:y val="-5.4618693496646257E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -215,7 +207,7 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$A$2:$A$38</c:f>
               <c:numCache>
@@ -334,8 +326,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$38</c:f>
               <c:numCache>
@@ -454,19 +446,30 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-46FF-4E11-B54A-FE303E2B5EC2}"/>
+              <c16:uniqueId val="{00000000-C88B-4785-B3C7-5290D1EE2580}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota fyzického senzoru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -475,7 +478,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -493,8 +508,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11310870516185477"/>
-                  <c:y val="-7.1361913094196552E-2"/>
+                  <c:x val="-0.19180468066491688"/>
+                  <c:y val="-8.3785360163312922E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -527,7 +542,7 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$A$2:$A$38</c:f>
               <c:numCache>
@@ -646,8 +661,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$C$2:$C$38</c:f>
               <c:numCache>
@@ -766,11 +781,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-46FF-4E11-B54A-FE303E2B5EC2}"/>
+              <c16:uniqueId val="{00000003-C88B-4785-B3C7-5290D1EE2580}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -782,17 +797,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1103807184"/>
-        <c:axId val="938832288"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1103807184"/>
+        <c:axId val="1883377695"/>
+        <c:axId val="1883101791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1883377695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -802,8 +830,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -830,15 +858,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938832288"/>
+        <c:crossAx val="1883101791"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="938832288"/>
+        <c:axId val="1883101791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,8 +889,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -889,9 +920,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1103807184"/>
+        <c:crossAx val="1883377695"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -901,37 +932,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1010,7 +1010,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1037,8 +1037,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1118,11 +1118,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1133,11 +1128,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1149,7 +1139,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1169,9 +1159,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1184,10 +1171,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1227,22 +1214,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1347,8 +1335,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1480,19 +1468,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1506,6 +1495,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1529,23 +1529,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE602B3-FC12-EFD5-E7BD-2443EFE71444}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458DFC13-3C8B-D52C-3058-2040B9DF5C26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,13 +1853,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1873,521 +1873,521 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>597.67907714843705</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>600.016845703125</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>596.72802734375</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>595.08624267578102</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>623.735595703125</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>650.06463623046795</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>70</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>667.69921875</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>80</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>690.19256591796795</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>90</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>712.79998779296795</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>17</v>
       </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>737.196533203125</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>21</v>
       </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>110</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>759.74719238281205</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>24</v>
       </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>120</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>781.82330322265602</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>28</v>
       </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>130</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>800.369873046875</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>31</v>
       </c>
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>140</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>823.680908203125</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>35</v>
       </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>150</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>841.11053466796795</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>38</v>
       </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>160</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>862.429931640625</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>42</v>
       </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>170</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>882.26672363281205</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>44</v>
       </c>
-      <c r="D18" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>180</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>896.07421875</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>47</v>
       </c>
-      <c r="D19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>190</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>914.24304199218705</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>50</v>
       </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>200</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>935.900390625</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>52</v>
       </c>
-      <c r="D21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>210</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>946.85693359375</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>55</v>
       </c>
-      <c r="D22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>220</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>966.42681884765602</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>58</v>
       </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>230</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>979.60711669921795</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>61</v>
       </c>
-      <c r="D24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>240</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>996.486083984375</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>64</v>
       </c>
-      <c r="D25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>250</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>1014.75396728515</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>66</v>
       </c>
-      <c r="D26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>260</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1026.97924804687</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>68</v>
       </c>
-      <c r="D27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>270</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>1039.78674316406</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>71</v>
       </c>
-      <c r="D28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>280</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>1062.59106445312</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>74</v>
       </c>
-      <c r="D29" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>290</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>1077.77746582031</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>76</v>
       </c>
-      <c r="D30" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>300</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>1092.81103515625</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>79</v>
       </c>
-      <c r="D31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>310</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>1119.82629394531</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>82</v>
       </c>
-      <c r="D32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>320</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>1134.57751464843</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>85</v>
       </c>
-      <c r="D33" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>330</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>1170.3759765625</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>88</v>
       </c>
-      <c r="D34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>340</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>1177.85119628906</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>92</v>
       </c>
-      <c r="D35" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>350</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>1190.06420898437</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>94</v>
       </c>
-      <c r="D36" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>360</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>1210.7314453125</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>97</v>
       </c>
-      <c r="D37" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>370</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>1223.1572265625</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>100</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>10</v>
       </c>
     </row>

--- a/mereni_MD/1.sval3.xlsx
+++ b/mereni_MD/1.sval3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarekDarsaU\Documents\Škola\5.Semester\Projekt-5\mereni_MD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C05383-12E9-4782-9590-14BE5090A86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A0ED74-3B21-486E-98B4-E649683C794F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -969,7 +969,604 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota fyzického senzoru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>597.67907714843705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600.016845703125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>596.72802734375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>595.08624267578102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>623.735595703125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>650.06463623046795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>667.69921875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>690.19256591796795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>712.79998779296795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>737.196533203125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>759.74719238281205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>781.82330322265602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800.369873046875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>823.680908203125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>841.11053466796795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>862.429931640625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>882.26672363281205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>896.07421875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>914.24304199218705</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>935.900390625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>946.85693359375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>966.42681884765602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>979.60711669921795</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>996.486083984375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1014.75396728515</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1026.97924804687</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1039.78674316406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1062.59106445312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1077.77746582031</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1092.81103515625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1119.82629394531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1134.57751464843</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1170.3759765625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1177.85119628906</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1190.06420898437</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1210.7314453125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1223.1572265625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-674F-4623-9B8A-08B0C452BBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="486485967"/>
+        <c:axId val="703345727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="486485967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703345727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="703345727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486485967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1525,20 +2122,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1558,6 +2671,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74B14F7-3090-D55D-D86D-21040F8B5E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1853,13 +3002,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1887,7 +3036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1901,7 +3050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1915,7 +3064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1929,7 +3078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1943,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -1957,7 +3106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70</v>
       </c>
@@ -1971,7 +3120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80</v>
       </c>
@@ -1985,7 +3134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90</v>
       </c>
@@ -1999,7 +3148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -2013,7 +3162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>110</v>
       </c>
@@ -2027,7 +3176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>120</v>
       </c>
@@ -2041,7 +3190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>130</v>
       </c>
@@ -2055,7 +3204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>140</v>
       </c>
@@ -2069,7 +3218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>150</v>
       </c>
@@ -2083,7 +3232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>160</v>
       </c>
@@ -2097,7 +3246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>170</v>
       </c>
@@ -2111,7 +3260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>180</v>
       </c>
@@ -2125,7 +3274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>190</v>
       </c>
@@ -2139,7 +3288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200</v>
       </c>
@@ -2153,7 +3302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>210</v>
       </c>
@@ -2167,7 +3316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>220</v>
       </c>
@@ -2181,7 +3330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>230</v>
       </c>
@@ -2195,7 +3344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>240</v>
       </c>
@@ -2209,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>250</v>
       </c>
@@ -2223,7 +3372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>260</v>
       </c>
@@ -2237,7 +3386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>270</v>
       </c>
@@ -2251,7 +3400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>280</v>
       </c>
@@ -2265,7 +3414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>290</v>
       </c>
@@ -2279,7 +3428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>300</v>
       </c>
@@ -2293,7 +3442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>310</v>
       </c>
@@ -2307,7 +3456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>320</v>
       </c>
@@ -2321,7 +3470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>330</v>
       </c>
@@ -2335,7 +3484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>340</v>
       </c>
@@ -2349,7 +3498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>350</v>
       </c>
@@ -2363,7 +3512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>360</v>
       </c>
@@ -2377,7 +3526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>370</v>
       </c>
